--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.203763232605136</v>
+        <v>0.3179663333333333</v>
       </c>
       <c r="H2">
-        <v>0.203763232605136</v>
+        <v>0.9538989999999999</v>
       </c>
       <c r="I2">
-        <v>0.1018626737016678</v>
+        <v>0.1372197387470957</v>
       </c>
       <c r="J2">
-        <v>0.1018626737016678</v>
+        <v>0.1449031013610333</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.82183324110304</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N2">
-        <v>3.82183324110304</v>
+        <v>11.96377</v>
       </c>
       <c r="O2">
-        <v>0.05626203830071427</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P2">
-        <v>0.05626203830071427</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q2">
-        <v>0.7787490956849196</v>
+        <v>1.268025359914444</v>
       </c>
       <c r="R2">
-        <v>0.7787490956849196</v>
+        <v>11.41222823923</v>
       </c>
       <c r="S2">
-        <v>0.005731001649216392</v>
+        <v>0.007745482202973962</v>
       </c>
       <c r="T2">
-        <v>0.005731001649216392</v>
+        <v>0.008673992546006513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.203763232605136</v>
+        <v>0.3179663333333333</v>
       </c>
       <c r="H3">
-        <v>0.203763232605136</v>
+        <v>0.9538989999999999</v>
       </c>
       <c r="I3">
-        <v>0.1018626737016678</v>
+        <v>0.1372197387470957</v>
       </c>
       <c r="J3">
-        <v>0.1018626737016678</v>
+        <v>0.1449031013610333</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.817923265941</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N3">
-        <v>51.817923265941</v>
+        <v>162.299907</v>
       </c>
       <c r="O3">
-        <v>0.7628229175719926</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P3">
-        <v>0.7628229175719926</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q3">
-        <v>10.55858755155302</v>
+        <v>17.201968776377</v>
       </c>
       <c r="R3">
-        <v>10.55858755155302</v>
+        <v>154.817718987393</v>
       </c>
       <c r="S3">
-        <v>0.07770318194479008</v>
+        <v>0.1050748251774173</v>
       </c>
       <c r="T3">
-        <v>0.07770318194479008</v>
+        <v>0.1176709501716892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.203763232605136</v>
+        <v>0.3179663333333333</v>
       </c>
       <c r="H4">
-        <v>0.203763232605136</v>
+        <v>0.9538989999999999</v>
       </c>
       <c r="I4">
-        <v>0.1018626737016678</v>
+        <v>0.1372197387470957</v>
       </c>
       <c r="J4">
-        <v>0.1018626737016678</v>
+        <v>0.1449031013610333</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.253021148032491</v>
+        <v>0.25851</v>
       </c>
       <c r="N4">
-        <v>0.253021148032491</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O4">
-        <v>0.003724779346308193</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P4">
-        <v>0.003724779346308193</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q4">
-        <v>0.05155640704056301</v>
+        <v>0.08219747682999998</v>
       </c>
       <c r="R4">
-        <v>0.05155640704056301</v>
+        <v>0.7397772914699999</v>
       </c>
       <c r="S4">
-        <v>0.0003794159831637028</v>
+        <v>0.0005020870355140893</v>
       </c>
       <c r="T4">
-        <v>0.0003794159831637028</v>
+        <v>0.000562276058400022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.203763232605136</v>
+        <v>0.3179663333333333</v>
       </c>
       <c r="H5">
-        <v>0.203763232605136</v>
+        <v>0.9538989999999999</v>
       </c>
       <c r="I5">
-        <v>0.1018626737016678</v>
+        <v>0.1372197387470957</v>
       </c>
       <c r="J5">
-        <v>0.1018626737016678</v>
+        <v>0.1449031013610333</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>12.0363866008605</v>
+        <v>0.213071</v>
       </c>
       <c r="N5">
-        <v>12.0363866008605</v>
+        <v>0.639213</v>
       </c>
       <c r="O5">
-        <v>0.1771902647809849</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P5">
-        <v>0.1771902647809849</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q5">
-        <v>2.45257304267648</v>
+        <v>0.06774940460966666</v>
       </c>
       <c r="R5">
-        <v>2.45257304267648</v>
+        <v>0.609744641487</v>
       </c>
       <c r="S5">
-        <v>0.01804907412449758</v>
+        <v>0.0004138338429616748</v>
       </c>
       <c r="T5">
-        <v>0.01804907412449758</v>
+        <v>0.0004634432789422115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.831224511761358</v>
+        <v>0.3179663333333333</v>
       </c>
       <c r="H6">
-        <v>0.831224511761358</v>
+        <v>0.9538989999999999</v>
       </c>
       <c r="I6">
-        <v>0.4155349821057026</v>
+        <v>0.1372197387470957</v>
       </c>
       <c r="J6">
-        <v>0.4155349821057026</v>
+        <v>0.1449031013610333</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.82183324110304</v>
+        <v>12.090976</v>
       </c>
       <c r="N6">
-        <v>3.82183324110304</v>
+        <v>24.181952</v>
       </c>
       <c r="O6">
-        <v>0.05626203830071427</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P6">
-        <v>0.05626203830071427</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q6">
-        <v>3.176801469869203</v>
+        <v>3.844523305141333</v>
       </c>
       <c r="R6">
-        <v>3.176801469869203</v>
+        <v>23.067139830848</v>
       </c>
       <c r="S6">
-        <v>0.02337884507851766</v>
+        <v>0.02348351048822871</v>
       </c>
       <c r="T6">
-        <v>0.02337884507851766</v>
+        <v>0.0175324393059953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.831224511761358</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H7">
-        <v>0.831224511761358</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I7">
-        <v>0.4155349821057026</v>
+        <v>0.4188283401421814</v>
       </c>
       <c r="J7">
-        <v>0.4155349821057026</v>
+        <v>0.4422798496676218</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>51.817923265941</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N7">
-        <v>51.817923265941</v>
+        <v>11.96377</v>
       </c>
       <c r="O7">
-        <v>0.7628229175719926</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P7">
-        <v>0.7628229175719926</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q7">
-        <v>43.07232796721932</v>
+        <v>3.870324791464445</v>
       </c>
       <c r="R7">
-        <v>43.07232796721932</v>
+        <v>34.83292312318001</v>
       </c>
       <c r="S7">
-        <v>0.3169796074030978</v>
+        <v>0.02364111376608383</v>
       </c>
       <c r="T7">
-        <v>0.3169796074030978</v>
+        <v>0.02647515535024624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.831224511761358</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H8">
-        <v>0.831224511761358</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I8">
-        <v>0.4155349821057026</v>
+        <v>0.4188283401421814</v>
       </c>
       <c r="J8">
-        <v>0.4155349821057026</v>
+        <v>0.4422798496676218</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.253021148032491</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N8">
-        <v>0.253021148032491</v>
+        <v>162.299907</v>
       </c>
       <c r="O8">
-        <v>0.003724779346308193</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P8">
-        <v>0.003724779346308193</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q8">
-        <v>0.2103173802386056</v>
+        <v>52.50463304748202</v>
       </c>
       <c r="R8">
-        <v>0.2103173802386056</v>
+        <v>472.5416974273381</v>
       </c>
       <c r="S8">
-        <v>0.001547776119015866</v>
+        <v>0.3207141699992416</v>
       </c>
       <c r="T8">
-        <v>0.001547776119015866</v>
+        <v>0.3591606367520871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.831224511761358</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H9">
-        <v>0.831224511761358</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I9">
-        <v>0.4155349821057026</v>
+        <v>0.4188283401421814</v>
       </c>
       <c r="J9">
-        <v>0.4155349821057026</v>
+        <v>0.4422798496676218</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0363866008605</v>
+        <v>0.25851</v>
       </c>
       <c r="N9">
-        <v>12.0363866008605</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O9">
-        <v>0.1771902647809849</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P9">
-        <v>0.1771902647809849</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q9">
-        <v>10.00493957567122</v>
+        <v>0.25088688478</v>
       </c>
       <c r="R9">
-        <v>10.00493957567122</v>
+        <v>2.25798196302</v>
       </c>
       <c r="S9">
-        <v>0.07362875350507127</v>
+        <v>0.001532492931493249</v>
       </c>
       <c r="T9">
-        <v>0.07362875350507127</v>
+        <v>0.001716204610150184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.323946712553818</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H10">
-        <v>0.323946712553818</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I10">
-        <v>0.1619432409650816</v>
+        <v>0.4188283401421814</v>
       </c>
       <c r="J10">
-        <v>0.1619432409650816</v>
+        <v>0.4422798496676218</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.82183324110304</v>
+        <v>0.213071</v>
       </c>
       <c r="N10">
-        <v>3.82183324110304</v>
+        <v>0.639213</v>
       </c>
       <c r="O10">
-        <v>0.05626203830071427</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P10">
-        <v>0.05626203830071427</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q10">
-        <v>1.238070314384233</v>
+        <v>0.2067878203046667</v>
       </c>
       <c r="R10">
-        <v>1.238070314384233</v>
+        <v>1.861090382742</v>
       </c>
       <c r="S10">
-        <v>0.009111256825719224</v>
+        <v>0.001263122515207142</v>
       </c>
       <c r="T10">
-        <v>0.009111256825719224</v>
+        <v>0.001414542696566128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.323946712553818</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H11">
-        <v>0.323946712553818</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I11">
-        <v>0.1619432409650816</v>
+        <v>0.4188283401421814</v>
       </c>
       <c r="J11">
-        <v>0.1619432409650816</v>
+        <v>0.4422798496676218</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.817923265941</v>
+        <v>12.090976</v>
       </c>
       <c r="N11">
-        <v>51.817923265941</v>
+        <v>24.181952</v>
       </c>
       <c r="O11">
-        <v>0.7628229175719926</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P11">
-        <v>0.7628229175719926</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q11">
-        <v>16.78624589336759</v>
+        <v>11.73442923906134</v>
       </c>
       <c r="R11">
-        <v>16.78624589336759</v>
+        <v>70.40657543436802</v>
       </c>
       <c r="S11">
-        <v>0.1235340155540478</v>
+        <v>0.07167744093015561</v>
       </c>
       <c r="T11">
-        <v>0.1235340155540478</v>
+        <v>0.05351331025857215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.323946712553818</v>
+        <v>0.368371</v>
       </c>
       <c r="H12">
-        <v>0.323946712553818</v>
+        <v>1.105113</v>
       </c>
       <c r="I12">
-        <v>0.1619432409650816</v>
+        <v>0.1589720894413551</v>
       </c>
       <c r="J12">
-        <v>0.1619432409650816</v>
+        <v>0.167873434246598</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.253021148032491</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N12">
-        <v>0.253021148032491</v>
+        <v>11.96377</v>
       </c>
       <c r="O12">
-        <v>0.003724779346308193</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P12">
-        <v>0.003724779346308193</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q12">
-        <v>0.08196536911171839</v>
+        <v>1.469035306223333</v>
       </c>
       <c r="R12">
-        <v>0.08196536911171839</v>
+        <v>13.22131775601</v>
       </c>
       <c r="S12">
-        <v>0.000603202839220947</v>
+        <v>0.00897331171725221</v>
       </c>
       <c r="T12">
-        <v>0.000603202839220947</v>
+        <v>0.0100490113990002</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.323946712553818</v>
+        <v>0.368371</v>
       </c>
       <c r="H13">
-        <v>0.323946712553818</v>
+        <v>1.105113</v>
       </c>
       <c r="I13">
-        <v>0.1619432409650816</v>
+        <v>0.1589720894413551</v>
       </c>
       <c r="J13">
-        <v>0.1619432409650816</v>
+        <v>0.167873434246598</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0363866008605</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N13">
-        <v>12.0363866008605</v>
+        <v>162.299907</v>
       </c>
       <c r="O13">
-        <v>0.1771902647809849</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P13">
-        <v>0.1771902647809849</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q13">
-        <v>3.899147870375583</v>
+        <v>19.928859680499</v>
       </c>
       <c r="R13">
-        <v>3.899147870375583</v>
+        <v>179.359737124491</v>
       </c>
       <c r="S13">
-        <v>0.02869476574609366</v>
+        <v>0.121731499117088</v>
       </c>
       <c r="T13">
-        <v>0.02869476574609366</v>
+        <v>0.1363243873377433</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.290398797494887</v>
+        <v>0.368371</v>
       </c>
       <c r="H14">
-        <v>0.290398797494887</v>
+        <v>1.105113</v>
       </c>
       <c r="I14">
-        <v>0.1451724021767054</v>
+        <v>0.1589720894413551</v>
       </c>
       <c r="J14">
-        <v>0.1451724021767054</v>
+        <v>0.167873434246598</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.82183324110304</v>
+        <v>0.25851</v>
       </c>
       <c r="N14">
-        <v>3.82183324110304</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O14">
-        <v>0.05626203830071427</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P14">
-        <v>0.05626203830071427</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q14">
-        <v>1.109855777442309</v>
+        <v>0.09522758720999999</v>
       </c>
       <c r="R14">
-        <v>1.109855777442309</v>
+        <v>0.85704828489</v>
       </c>
       <c r="S14">
-        <v>0.008167695251472493</v>
+        <v>0.0005816788885176332</v>
       </c>
       <c r="T14">
-        <v>0.008167695251472493</v>
+        <v>0.0006514091971232002</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.290398797494887</v>
+        <v>0.368371</v>
       </c>
       <c r="H15">
-        <v>0.290398797494887</v>
+        <v>1.105113</v>
       </c>
       <c r="I15">
-        <v>0.1451724021767054</v>
+        <v>0.1589720894413551</v>
       </c>
       <c r="J15">
-        <v>0.1451724021767054</v>
+        <v>0.167873434246598</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>51.817923265941</v>
+        <v>0.213071</v>
       </c>
       <c r="N15">
-        <v>51.817923265941</v>
+        <v>0.639213</v>
       </c>
       <c r="O15">
-        <v>0.7628229175719926</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P15">
-        <v>0.7628229175719926</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q15">
-        <v>15.04786260511159</v>
+        <v>0.078489177341</v>
       </c>
       <c r="R15">
-        <v>15.04786260511159</v>
+        <v>0.706402596069</v>
       </c>
       <c r="S15">
-        <v>0.1107408353793691</v>
+        <v>0.0004794356212732221</v>
       </c>
       <c r="T15">
-        <v>0.1107408353793691</v>
+        <v>0.0005369092454459689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.290398797494887</v>
+        <v>0.368371</v>
       </c>
       <c r="H16">
-        <v>0.290398797494887</v>
+        <v>1.105113</v>
       </c>
       <c r="I16">
-        <v>0.1451724021767054</v>
+        <v>0.1589720894413551</v>
       </c>
       <c r="J16">
-        <v>0.1451724021767054</v>
+        <v>0.167873434246598</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.253021148032491</v>
+        <v>12.090976</v>
       </c>
       <c r="N16">
-        <v>0.253021148032491</v>
+        <v>24.181952</v>
       </c>
       <c r="O16">
-        <v>0.003724779346308193</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P16">
-        <v>0.003724779346308193</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q16">
-        <v>0.07347703712941117</v>
+        <v>4.453964920096</v>
       </c>
       <c r="R16">
-        <v>0.07347703712941117</v>
+        <v>26.723789520576</v>
       </c>
       <c r="S16">
-        <v>0.0005407351652817387</v>
+        <v>0.02720616409722402</v>
       </c>
       <c r="T16">
-        <v>0.0005407351652817387</v>
+        <v>0.0203117170672853</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.290398797494887</v>
+        <v>0.2917533333333333</v>
       </c>
       <c r="H17">
-        <v>0.290398797494887</v>
+        <v>0.8752599999999999</v>
       </c>
       <c r="I17">
-        <v>0.1451724021767054</v>
+        <v>0.1259074058530127</v>
       </c>
       <c r="J17">
-        <v>0.1451724021767054</v>
+        <v>0.1329573555452496</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.0363866008605</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N17">
-        <v>12.0363866008605</v>
+        <v>11.96377</v>
       </c>
       <c r="O17">
-        <v>0.1771902647809849</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P17">
-        <v>0.1771902647809849</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q17">
-        <v>3.49535219507346</v>
+        <v>1.163489925577778</v>
       </c>
       <c r="R17">
-        <v>3.49535219507346</v>
+        <v>10.4714093302</v>
       </c>
       <c r="S17">
-        <v>0.02572313638058205</v>
+        <v>0.007106948170587234</v>
       </c>
       <c r="T17">
-        <v>0.02572313638058205</v>
+        <v>0.007958912542960692</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.351038669867011</v>
+        <v>0.2917533333333333</v>
       </c>
       <c r="H18">
-        <v>0.351038669867011</v>
+        <v>0.8752599999999999</v>
       </c>
       <c r="I18">
-        <v>0.1754867010508426</v>
+        <v>0.1259074058530127</v>
       </c>
       <c r="J18">
-        <v>0.1754867010508426</v>
+        <v>0.1329573555452496</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.82183324110304</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N18">
-        <v>3.82183324110304</v>
+        <v>162.299907</v>
       </c>
       <c r="O18">
-        <v>0.05626203830071427</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P18">
-        <v>0.05626203830071427</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q18">
-        <v>1.341611257410339</v>
+        <v>15.78384628898</v>
       </c>
       <c r="R18">
-        <v>1.341611257410339</v>
+        <v>142.05461660082</v>
       </c>
       <c r="S18">
-        <v>0.009873239495788503</v>
+        <v>0.09641250434772053</v>
       </c>
       <c r="T18">
-        <v>0.009873239495788503</v>
+        <v>0.1079702105225739</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.351038669867011</v>
+        <v>0.2917533333333333</v>
       </c>
       <c r="H19">
-        <v>0.351038669867011</v>
+        <v>0.8752599999999999</v>
       </c>
       <c r="I19">
-        <v>0.1754867010508426</v>
+        <v>0.1259074058530127</v>
       </c>
       <c r="J19">
-        <v>0.1754867010508426</v>
+        <v>0.1329573555452496</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51.817923265941</v>
+        <v>0.25851</v>
       </c>
       <c r="N19">
-        <v>51.817923265941</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O19">
-        <v>0.7628229175719926</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P19">
-        <v>0.7628229175719926</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q19">
-        <v>18.19009485854677</v>
+        <v>0.07542115419999998</v>
       </c>
       <c r="R19">
-        <v>18.19009485854677</v>
+        <v>0.6787903877999999</v>
       </c>
       <c r="S19">
-        <v>0.1338652772906878</v>
+        <v>0.0004606952085116578</v>
       </c>
       <c r="T19">
-        <v>0.1338652772906878</v>
+        <v>0.0005159222757075994</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.351038669867011</v>
+        <v>0.2917533333333333</v>
       </c>
       <c r="H20">
-        <v>0.351038669867011</v>
+        <v>0.8752599999999999</v>
       </c>
       <c r="I20">
-        <v>0.1754867010508426</v>
+        <v>0.1259074058530127</v>
       </c>
       <c r="J20">
-        <v>0.1754867010508426</v>
+        <v>0.1329573555452496</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.253021148032491</v>
+        <v>0.213071</v>
       </c>
       <c r="N20">
-        <v>0.253021148032491</v>
+        <v>0.639213</v>
       </c>
       <c r="O20">
-        <v>0.003724779346308193</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P20">
-        <v>0.003724779346308193</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q20">
-        <v>0.08882020725354972</v>
+        <v>0.06216417448666667</v>
       </c>
       <c r="R20">
-        <v>0.08882020725354972</v>
+        <v>0.55947757038</v>
       </c>
       <c r="S20">
-        <v>0.0006536492396259388</v>
+        <v>0.0003797175690409944</v>
       </c>
       <c r="T20">
-        <v>0.0006536492396259388</v>
+        <v>0.0004252372256674555</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.351038669867011</v>
+        <v>0.2917533333333333</v>
       </c>
       <c r="H21">
-        <v>0.351038669867011</v>
+        <v>0.8752599999999999</v>
       </c>
       <c r="I21">
-        <v>0.1754867010508426</v>
+        <v>0.1259074058530127</v>
       </c>
       <c r="J21">
-        <v>0.1754867010508426</v>
+        <v>0.1329573555452496</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.0363866008605</v>
+        <v>12.090976</v>
       </c>
       <c r="N21">
-        <v>12.0363866008605</v>
+        <v>24.181952</v>
       </c>
       <c r="O21">
-        <v>0.1771902647809849</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P21">
-        <v>0.1771902647809849</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q21">
-        <v>4.225237142371183</v>
+        <v>3.527582551253333</v>
       </c>
       <c r="R21">
-        <v>4.225237142371183</v>
+        <v>21.16549530752</v>
       </c>
       <c r="S21">
-        <v>0.03109453502474035</v>
+        <v>0.02154754055715234</v>
       </c>
       <c r="T21">
-        <v>0.03109453502474035</v>
+        <v>0.01608707297833989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3686035</v>
+      </c>
+      <c r="H22">
+        <v>0.7372069999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1590724258163551</v>
+      </c>
+      <c r="J22">
+        <v>0.1119862591794973</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.987923333333333</v>
+      </c>
+      <c r="N22">
+        <v>11.96377</v>
+      </c>
+      <c r="O22">
+        <v>0.05644583114423032</v>
+      </c>
+      <c r="P22">
+        <v>0.05986064110798311</v>
+      </c>
+      <c r="Q22">
+        <v>1.469962498398333</v>
+      </c>
+      <c r="R22">
+        <v>8.81977499039</v>
+      </c>
+      <c r="S22">
+        <v>0.008978975287333083</v>
+      </c>
+      <c r="T22">
+        <v>0.006703569269769467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3686035</v>
+      </c>
+      <c r="H23">
+        <v>0.7372069999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1590724258163551</v>
+      </c>
+      <c r="J23">
+        <v>0.1119862591794973</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>54.09996900000001</v>
+      </c>
+      <c r="N23">
+        <v>162.299907</v>
+      </c>
+      <c r="O23">
+        <v>0.7657413294677419</v>
+      </c>
+      <c r="P23">
+        <v>0.812066471086124</v>
+      </c>
+      <c r="Q23">
+        <v>19.9414379232915</v>
+      </c>
+      <c r="R23">
+        <v>119.648627539749</v>
+      </c>
+      <c r="S23">
+        <v>0.1218083308262745</v>
+      </c>
+      <c r="T23">
+        <v>0.09094028630203041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3686035</v>
+      </c>
+      <c r="H24">
+        <v>0.7372069999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1590724258163551</v>
+      </c>
+      <c r="J24">
+        <v>0.1119862591794973</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.25851</v>
+      </c>
+      <c r="N24">
+        <v>0.7755299999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.003659000083358752</v>
+      </c>
+      <c r="P24">
+        <v>0.003880359033855895</v>
+      </c>
+      <c r="Q24">
+        <v>0.09528769078499998</v>
+      </c>
+      <c r="R24">
+        <v>0.5717261447099999</v>
+      </c>
+      <c r="S24">
+        <v>0.000582046019322122</v>
+      </c>
+      <c r="T24">
+        <v>0.0004345468924748899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3686035</v>
+      </c>
+      <c r="H25">
+        <v>0.7372069999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1590724258163551</v>
+      </c>
+      <c r="J25">
+        <v>0.1119862591794973</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.213071</v>
+      </c>
+      <c r="N25">
+        <v>0.639213</v>
+      </c>
+      <c r="O25">
+        <v>0.003015847768988947</v>
+      </c>
+      <c r="P25">
+        <v>0.003198297859667748</v>
+      </c>
+      <c r="Q25">
+        <v>0.0785387163485</v>
+      </c>
+      <c r="R25">
+        <v>0.471232298091</v>
+      </c>
+      <c r="S25">
+        <v>0.0004797382205059143</v>
+      </c>
+      <c r="T25">
+        <v>0.0003581654130459839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3686035</v>
+      </c>
+      <c r="H26">
+        <v>0.7372069999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1590724258163551</v>
+      </c>
+      <c r="J26">
+        <v>0.1119862591794973</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.090976</v>
+      </c>
+      <c r="N26">
+        <v>24.181952</v>
+      </c>
+      <c r="O26">
+        <v>0.1711379915356802</v>
+      </c>
+      <c r="P26">
+        <v>0.1209942309123691</v>
+      </c>
+      <c r="Q26">
+        <v>4.456776072016</v>
+      </c>
+      <c r="R26">
+        <v>17.827104288064</v>
+      </c>
+      <c r="S26">
+        <v>0.02722333546291949</v>
+      </c>
+      <c r="T26">
+        <v>0.01354969130217651</v>
       </c>
     </row>
   </sheetData>
